--- a/kodi/výstupy/C3V1/matice.xlsx
+++ b/kodi/výstupy/C3V1/matice.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cervenkovaj\Documents\KODI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\novof\Dropbox\OD II\VZ Marketingová studie\výstupy a dokumentace průběhu zakázky\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC925B2A-265D-4508-9543-273BA46869FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23295" windowHeight="9990" tabRatio="658"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="658" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matice" sheetId="1" r:id="rId1"/>
@@ -10047,7 +10048,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -10166,8 +10167,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -10247,141 +10248,141 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A3:DQ303" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <sortState ref="A4:DQ303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabulka2" displayName="Tabulka2" ref="A3:DQ303" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:DQ303">
     <sortCondition ref="A3:A303"/>
   </sortState>
   <tableColumns count="121">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="12" name="Sektor"/>
-    <tableColumn id="13" name="Jiný sektor (prosím upřesněte)"/>
-    <tableColumn id="14" name="Velikost firmy"/>
-    <tableColumn id="15" name="Sektor_2"/>
-    <tableColumn id="16" name="jiný sektor (prosím upřesněte)13"/>
-    <tableColumn id="136" name="jiný sektor_ RECODE"/>
-    <tableColumn id="17" name="Response14"/>
-    <tableColumn id="18" name="Jiné (prosím upřesněte)"/>
-    <tableColumn id="19" name="Open-Ended Response15"/>
-    <tableColumn id="20" name="Response16"/>
-    <tableColumn id="21" name="Open-Ended Response17"/>
-    <tableColumn id="22" name="Nemám pokročilejší IT dovednosti."/>
-    <tableColumn id="23" name="práce s databázemi"/>
-    <tableColumn id="24" name="programování / skriptování"/>
-    <tableColumn id="25" name="jiné (prosím upřesněte jaké)"/>
-    <tableColumn id="26" name="nic z výše uvedeného"/>
-    <tableColumn id="27" name="statistické kompetence (analýza dat)"/>
-    <tableColumn id="28" name="analytické dovednosti (problem-solving / řešení problémů)"/>
-    <tableColumn id="29" name="technické kompetence (databáze, programování, algoritmy)"/>
-    <tableColumn id="30" name="komunikační dovednosti"/>
-    <tableColumn id="31" name="obchodní dovednosti (strategie, nacházení příležitostí)"/>
-    <tableColumn id="32" name="doménová znalost (expertní znalost konkrétního tématu)"/>
-    <tableColumn id="33" name="jiná kompetence / dovednost (prosím upřesněte jaká)"/>
-    <tableColumn id="34" name="Open-Ended Response18"/>
-    <tableColumn id="35" name="Response19"/>
-    <tableColumn id="36" name="Response20"/>
-    <tableColumn id="37" name="Response21"/>
-    <tableColumn id="38" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat."/>
-    <tableColumn id="39" name="Response22"/>
-    <tableColumn id="40" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.23"/>
-    <tableColumn id="41" name="Response24"/>
-    <tableColumn id="42" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.25"/>
-    <tableColumn id="43" name="Response26"/>
-    <tableColumn id="44" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.27"/>
-    <tableColumn id="45" name="Response28"/>
-    <tableColumn id="46" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.29"/>
-    <tableColumn id="47" name="Response30"/>
-    <tableColumn id="48" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.31"/>
-    <tableColumn id="49" name="Response32"/>
-    <tableColumn id="50" name="Ano, využívám... Které konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat."/>
-    <tableColumn id="51" name="Response33"/>
-    <tableColumn id="52" name="Ano, chtěl(a) bych využívat… (prosím, doplňte, která konkrétní data / okruh(y) dat vám schází)"/>
-    <tableColumn id="53" name="Response34"/>
-    <tableColumn id="54" name="Jiná odpověď (prosím upřesněte)"/>
-    <tableColumn id="55" name="Response35" dataDxfId="1"/>
-    <tableColumn id="138" name="Jiná odpověď (prosím upřesněte)2"/>
-    <tableColumn id="56" name="Zlepšování produktů / služeb"/>
-    <tableColumn id="57" name="Optimalizace procesů v mé organizaci / firmě"/>
-    <tableColumn id="58" name="Poskytování dat jako služba"/>
-    <tableColumn id="59" name="Informace jako služba"/>
-    <tableColumn id="60" name="Odpovědi / analýzy jako služba"/>
-    <tableColumn id="61" name="Vývoj webových nebo mobilních aplikací"/>
-    <tableColumn id="62" name="Jiné (prosím upřesněte)36"/>
-    <tableColumn id="63" name="Open-Ended Response37"/>
-    <tableColumn id="65" name="Response39"/>
-    <tableColumn id="66" name="Na portálu poskytovatele dat (oficiální stránky instituce, registry, rejstříky)"/>
-    <tableColumn id="67" name="Skrze Národní katalog otevřených dat (NKOD)"/>
-    <tableColumn id="68" name="Na základě oficiální (zákonné) žádosti o informace"/>
-    <tableColumn id="69" name="Skrze kontakty v dané instituci"/>
-    <tableColumn id="70" name="Nákupem dat"/>
-    <tableColumn id="71" name="Jiným způsobem (prosím upřesněte)"/>
-    <tableColumn id="72" name="Open-Ended Response40"/>
-    <tableColumn id="73" name="Response41" dataDxfId="0"/>
-    <tableColumn id="74" name="Open-Ended Response42"/>
-    <tableColumn id="75" name="Response43"/>
-    <tableColumn id="76" name="Response44"/>
-    <tableColumn id="77" name="Open-Ended Response45"/>
-    <tableColumn id="78" name="Response46"/>
-    <tableColumn id="79" name="Open-Ended Response47"/>
-    <tableColumn id="80" name="Response48"/>
-    <tableColumn id="81" name="Open-Ended Response49"/>
-    <tableColumn id="82" name="Response50"/>
-    <tableColumn id="83" name="Open-Ended Response51"/>
-    <tableColumn id="84" name="Open-Ended Response52"/>
-    <tableColumn id="85" name="Žádné bariéry nevnímám."/>
-    <tableColumn id="86" name="Data nejsou dostupná ve strojově čitelném formátu."/>
-    <tableColumn id="87" name="Data nejsou dostupná v otevřeném (neproprietárním formátu)."/>
-    <tableColumn id="88" name="Je omezen způsob a/nebo účel využití dat."/>
-    <tableColumn id="89" name="Data nejsou veřejně dostupná."/>
-    <tableColumn id="90" name="Nevím, kdo požadovaná data drží / spravuje."/>
-    <tableColumn id="91" name="Nízká granularita (detail) dat (např. data pouze za celé kraje a nikoli na úrovni okresů, jednotlivých obcí)."/>
-    <tableColumn id="92" name="Nejasná struktura dat."/>
-    <tableColumn id="93" name="Neúplná data."/>
-    <tableColumn id="94" name="Nejsou k dispozici aktuální data."/>
-    <tableColumn id="95" name="Není jasné, jak data interpretovat (např. chybí metadata / popis proměnných)."/>
-    <tableColumn id="96" name="Nevím, na koho se obrátit v případě dotazů ke konkrétnímu datasetu."/>
-    <tableColumn id="97" name="Jiná(é) zásadní bariéra(y) (prosíme, doplňte, jaké a stručně je vysvětlete)"/>
-    <tableColumn id="98" name="Response53"/>
-    <tableColumn id="99" name="žádost o dosud nepublikovaná data"/>
-    <tableColumn id="100" name="nahlášení chyby v datech"/>
-    <tableColumn id="101" name="vysvětlení struktury / mezí interpretace dat"/>
-    <tableColumn id="102" name="z jiného důvodu (prosím upřesněte)"/>
-    <tableColumn id="103" name="Response54"/>
-    <tableColumn id="104" name="Ne, nikdy jsem se podobné události neúčastnil(a)."/>
-    <tableColumn id="105" name="konference"/>
-    <tableColumn id="106" name="workshop / seminář"/>
-    <tableColumn id="107" name="hackathon"/>
-    <tableColumn id="108" name="jiná událost (prosím upřesněte)"/>
-    <tableColumn id="109" name="Response55"/>
-    <tableColumn id="110" name="poskytujeme si hůře dostupná data veřejné správy"/>
-    <tableColumn id="111" name="rady / spolupráce týkající se překonávání bariér, řešení problémů"/>
-    <tableColumn id="112" name="doporučení na nové zdroje (otevřených) dat"/>
-    <tableColumn id="113" name="komunikujeme o novinkách týkajících se (otevřených) dat"/>
-    <tableColumn id="114" name="jiné (prosím upřesněte)56"/>
-    <tableColumn id="115" name="Response57"/>
-    <tableColumn id="116" name="příklady využití otevřených dat"/>
-    <tableColumn id="117" name="plánované změny v legislativě v kontextu otevřených dat"/>
-    <tableColumn id="118" name="kde hledat (otevřená) data veřejné správy"/>
-    <tableColumn id="119" name="nabídku vzdělávacích aktivit v kontextu otevřených dat"/>
-    <tableColumn id="120" name="upozornění na nově publikovaná otevřená data"/>
-    <tableColumn id="121" name="novinky v technologii publikace / zpracování otevřených dat"/>
-    <tableColumn id="122" name="nové technologické standardy pro vybrané oblasti dat"/>
-    <tableColumn id="123" name="monitoring kvality otevřených dat od jednotlivých poskytovatelů dat veřejné správy"/>
-    <tableColumn id="124" name="něco jiného (prosím upřesněte)"/>
-    <tableColumn id="125" name="publikováním na webu (např. ve formě článku)"/>
-    <tableColumn id="126" name="sociální sítě"/>
-    <tableColumn id="127" name="mailovou komunikaci (např. newsletter)"/>
-    <tableColumn id="128" name="konference58"/>
-    <tableColumn id="129" name="semináře / workshopy"/>
-    <tableColumn id="130" name="jiné (prosím upřesněte)59"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Sektor"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Jiný sektor (prosím upřesněte)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Velikost firmy"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Sektor_2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="jiný sektor (prosím upřesněte)13"/>
+    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0000-000088000000}" name="jiný sektor_ RECODE"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Response14"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Jiné (prosím upřesněte)"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Open-Ended Response15"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Response16"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Open-Ended Response17"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Nemám pokročilejší IT dovednosti."/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="práce s databázemi"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="programování / skriptování"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="jiné (prosím upřesněte jaké)"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="nic z výše uvedeného"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="statistické kompetence (analýza dat)"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="analytické dovednosti (problem-solving / řešení problémů)"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="technické kompetence (databáze, programování, algoritmy)"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="komunikační dovednosti"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="obchodní dovednosti (strategie, nacházení příležitostí)"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="doménová znalost (expertní znalost konkrétního tématu)"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="jiná kompetence / dovednost (prosím upřesněte jaká)"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Open-Ended Response18"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Response19"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Response20"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Response21"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat."/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Response22"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.23"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Response24"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.25"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Response26"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.27"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Response28"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.29"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Response30"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="VyužívámKteré konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat.31"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Response32"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Ano, využívám... Které konkrétní tematické okruhy dat využíváte? Uveďte (a případně) popište 1-3 příklady nejčastěji / pravidelně využívaných tematických okruhů dat."/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Response33"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Ano, chtěl(a) bych využívat… (prosím, doplňte, která konkrétní data / okruh(y) dat vám schází)"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Response34"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Jiná odpověď (prosím upřesněte)"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Response35" dataDxfId="1"/>
+    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0000-00008A000000}" name="Jiná odpověď (prosím upřesněte)2"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Zlepšování produktů / služeb"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Optimalizace procesů v mé organizaci / firmě"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Poskytování dat jako služba"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Informace jako služba"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Odpovědi / analýzy jako služba"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Vývoj webových nebo mobilních aplikací"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Jiné (prosím upřesněte)36"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Open-Ended Response37"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Response39"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Na portálu poskytovatele dat (oficiální stránky instituce, registry, rejstříky)"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Skrze Národní katalog otevřených dat (NKOD)"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Na základě oficiální (zákonné) žádosti o informace"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Skrze kontakty v dané instituci"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Nákupem dat"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Jiným způsobem (prosím upřesněte)"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Open-Ended Response40"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Response41" dataDxfId="0"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Open-Ended Response42"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Response43"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Response44"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Open-Ended Response45"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Response46"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" name="Open-Ended Response47"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Response48"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Open-Ended Response49"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Response50"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" name="Open-Ended Response51"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Open-Ended Response52"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" name="Žádné bariéry nevnímám."/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" name="Data nejsou dostupná ve strojově čitelném formátu."/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Data nejsou dostupná v otevřeném (neproprietárním formátu)."/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" name="Je omezen způsob a/nebo účel využití dat."/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" name="Data nejsou veřejně dostupná."/>
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" name="Nevím, kdo požadovaná data drží / spravuje."/>
+    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0000-00005B000000}" name="Nízká granularita (detail) dat (např. data pouze za celé kraje a nikoli na úrovni okresů, jednotlivých obcí)."/>
+    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0000-00005C000000}" name="Nejasná struktura dat."/>
+    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0000-00005D000000}" name="Neúplná data."/>
+    <tableColumn id="94" xr3:uid="{00000000-0010-0000-0000-00005E000000}" name="Nejsou k dispozici aktuální data."/>
+    <tableColumn id="95" xr3:uid="{00000000-0010-0000-0000-00005F000000}" name="Není jasné, jak data interpretovat (např. chybí metadata / popis proměnných)."/>
+    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0000-000060000000}" name="Nevím, na koho se obrátit v případě dotazů ke konkrétnímu datasetu."/>
+    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0000-000061000000}" name="Jiná(é) zásadní bariéra(y) (prosíme, doplňte, jaké a stručně je vysvětlete)"/>
+    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0000-000062000000}" name="Response53"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="žádost o dosud nepublikovaná data"/>
+    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0000-000064000000}" name="nahlášení chyby v datech"/>
+    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0000-000065000000}" name="vysvětlení struktury / mezí interpretace dat"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0000-000066000000}" name="z jiného důvodu (prosím upřesněte)"/>
+    <tableColumn id="103" xr3:uid="{00000000-0010-0000-0000-000067000000}" name="Response54"/>
+    <tableColumn id="104" xr3:uid="{00000000-0010-0000-0000-000068000000}" name="Ne, nikdy jsem se podobné události neúčastnil(a)."/>
+    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0000-000069000000}" name="konference"/>
+    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0000-00006A000000}" name="workshop / seminář"/>
+    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0000-00006B000000}" name="hackathon"/>
+    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0000-00006C000000}" name="jiná událost (prosím upřesněte)"/>
+    <tableColumn id="109" xr3:uid="{00000000-0010-0000-0000-00006D000000}" name="Response55"/>
+    <tableColumn id="110" xr3:uid="{00000000-0010-0000-0000-00006E000000}" name="poskytujeme si hůře dostupná data veřejné správy"/>
+    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0000-00006F000000}" name="rady / spolupráce týkající se překonávání bariér, řešení problémů"/>
+    <tableColumn id="112" xr3:uid="{00000000-0010-0000-0000-000070000000}" name="doporučení na nové zdroje (otevřených) dat"/>
+    <tableColumn id="113" xr3:uid="{00000000-0010-0000-0000-000071000000}" name="komunikujeme o novinkách týkajících se (otevřených) dat"/>
+    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0000-000072000000}" name="jiné (prosím upřesněte)56"/>
+    <tableColumn id="115" xr3:uid="{00000000-0010-0000-0000-000073000000}" name="Response57"/>
+    <tableColumn id="116" xr3:uid="{00000000-0010-0000-0000-000074000000}" name="příklady využití otevřených dat"/>
+    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0000-000075000000}" name="plánované změny v legislativě v kontextu otevřených dat"/>
+    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0000-000076000000}" name="kde hledat (otevřená) data veřejné správy"/>
+    <tableColumn id="119" xr3:uid="{00000000-0010-0000-0000-000077000000}" name="nabídku vzdělávacích aktivit v kontextu otevřených dat"/>
+    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0000-000078000000}" name="upozornění na nově publikovaná otevřená data"/>
+    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0000-000079000000}" name="novinky v technologii publikace / zpracování otevřených dat"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0000-00007A000000}" name="nové technologické standardy pro vybrané oblasti dat"/>
+    <tableColumn id="123" xr3:uid="{00000000-0010-0000-0000-00007B000000}" name="monitoring kvality otevřených dat od jednotlivých poskytovatelů dat veřejné správy"/>
+    <tableColumn id="124" xr3:uid="{00000000-0010-0000-0000-00007C000000}" name="něco jiného (prosím upřesněte)"/>
+    <tableColumn id="125" xr3:uid="{00000000-0010-0000-0000-00007D000000}" name="publikováním na webu (např. ve formě článku)"/>
+    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0000-00007E000000}" name="sociální sítě"/>
+    <tableColumn id="127" xr3:uid="{00000000-0010-0000-0000-00007F000000}" name="mailovou komunikaci (např. newsletter)"/>
+    <tableColumn id="128" xr3:uid="{00000000-0010-0000-0000-000080000000}" name="konference58"/>
+    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0000-000081000000}" name="semináře / workshopy"/>
+    <tableColumn id="130" xr3:uid="{00000000-0010-0000-0000-000082000000}" name="jiné (prosím upřesněte)59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10419,7 +10420,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10454,6 +10455,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10489,9 +10507,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10664,24 +10699,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DQ303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DR1" sqref="DR1"/>
+      <selection activeCell="DR1" sqref="DR1:DR1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="45" width="10.7109375" customWidth="1"/>
-    <col min="46" max="46" width="10.7109375" style="3" customWidth="1"/>
-    <col min="47" max="63" width="10.7109375" customWidth="1"/>
-    <col min="64" max="64" width="10.7109375" style="3" customWidth="1"/>
-    <col min="65" max="121" width="10.7109375" customWidth="1"/>
+    <col min="2" max="45" width="10.77734375" customWidth="1"/>
+    <col min="46" max="46" width="10.77734375" style="3" customWidth="1"/>
+    <col min="47" max="63" width="10.77734375" customWidth="1"/>
+    <col min="64" max="64" width="10.77734375" style="3" customWidth="1"/>
+    <col min="65" max="121" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:121" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10833,7 +10868,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:121" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:121" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="5"/>
       <c r="AT2" s="6"/>
       <c r="BL2" s="6"/>
@@ -10844,7 +10879,7 @@
       <c r="DP2" s="2"/>
       <c r="DQ2" s="2"/>
     </row>
-    <row r="3" spans="1:121" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:121" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>470</v>
       </c>
@@ -11209,7 +11244,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13162387831</v>
       </c>
@@ -11412,7 +11447,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13162534702</v>
       </c>
@@ -11660,7 +11695,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13164241777</v>
       </c>
@@ -11845,7 +11880,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13164267749</v>
       </c>
@@ -12021,7 +12056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13164333066</v>
       </c>
@@ -12200,7 +12235,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13164358596</v>
       </c>
@@ -12391,7 +12426,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13164469220</v>
       </c>
@@ -12600,7 +12635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13164876462</v>
       </c>
@@ -12791,7 +12826,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13165055317</v>
       </c>
@@ -13030,7 +13065,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13165853645</v>
       </c>
@@ -13215,7 +13250,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13168140232</v>
       </c>
@@ -13346,7 +13381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13168226541</v>
       </c>
@@ -13534,7 +13569,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13168397058</v>
       </c>
@@ -13722,7 +13757,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13168546623</v>
       </c>
@@ -13928,7 +13963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13168599716</v>
       </c>
@@ -14110,7 +14145,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13169141765</v>
       </c>
@@ -14346,7 +14381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13169468865</v>
       </c>
@@ -14525,7 +14560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13169550393</v>
       </c>
@@ -14755,7 +14790,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13171348507</v>
       </c>
@@ -14931,7 +14966,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13172420718</v>
       </c>
@@ -15140,7 +15175,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13175658037</v>
       </c>
@@ -15316,7 +15351,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13176266012</v>
       </c>
@@ -15513,7 +15548,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13177029556</v>
       </c>
@@ -15635,7 +15670,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="27" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13177516896</v>
       </c>
@@ -15853,7 +15888,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13177549668</v>
       </c>
@@ -16047,7 +16082,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>13177550482</v>
       </c>
@@ -16226,7 +16261,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13177595589</v>
       </c>
@@ -16426,7 +16461,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13178737329</v>
       </c>
@@ -16608,7 +16643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13178838912</v>
       </c>
@@ -16769,7 +16804,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>13178851812</v>
       </c>
@@ -16927,7 +16962,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13178963770</v>
       </c>
@@ -17073,7 +17108,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>13179753812</v>
       </c>
@@ -17225,7 +17260,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>13180178484</v>
       </c>
@@ -17380,7 +17415,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13180255533</v>
       </c>
@@ -17601,7 +17636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>13180563935</v>
       </c>
@@ -17783,7 +17818,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>13180632674</v>
       </c>
@@ -17953,7 +17988,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13180943649</v>
       </c>
@@ -18111,7 +18146,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13181770696</v>
       </c>
@@ -18350,7 +18385,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13182929105</v>
       </c>
@@ -18556,7 +18591,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>13183073342</v>
       </c>
@@ -18780,7 +18815,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13184422513</v>
       </c>
@@ -18992,7 +19027,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13184946305</v>
       </c>
@@ -19147,7 +19182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13185967677</v>
       </c>
@@ -19293,7 +19328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>13186061334</v>
       </c>
@@ -19451,7 +19486,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>13186124048</v>
       </c>
@@ -19612,7 +19647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13186208473</v>
       </c>
@@ -19785,7 +19820,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13187113970</v>
       </c>
@@ -19934,7 +19969,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>13189463411</v>
       </c>
@@ -20089,7 +20124,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13189627936</v>
       </c>
@@ -20223,7 +20258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13189659523</v>
       </c>
@@ -20375,7 +20410,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13189726774</v>
       </c>
@@ -20503,7 +20538,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>13189881065</v>
       </c>
@@ -20664,7 +20699,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>13190186721</v>
       </c>
@@ -20864,7 +20899,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>13190461488</v>
       </c>
@@ -21103,7 +21138,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="58" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>13190747102</v>
       </c>
@@ -21309,7 +21344,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>13190993365</v>
       </c>
@@ -21479,7 +21514,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>13191033228</v>
       </c>
@@ -21694,7 +21729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>13191419167</v>
       </c>
@@ -21840,7 +21875,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>13192176174</v>
       </c>
@@ -22010,7 +22045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>13192272654</v>
       </c>
@@ -22180,7 +22215,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>13192275613</v>
       </c>
@@ -22374,7 +22409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:121" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:121" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>13192339862</v>
       </c>
@@ -22592,7 +22627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>13192410144</v>
       </c>
@@ -22846,7 +22881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>13192570523</v>
       </c>
@@ -22989,7 +23024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13192589165</v>
       </c>
@@ -23153,7 +23188,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="69" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>13192687814</v>
       </c>
@@ -23386,7 +23421,7 @@
       <c r="DP69" s="3"/>
       <c r="DQ69" s="3"/>
     </row>
-    <row r="70" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>13192811163</v>
       </c>
@@ -23535,7 +23570,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>13192921422</v>
       </c>
@@ -23678,7 +23713,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>13193009139</v>
       </c>
@@ -23851,7 +23886,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>13193167329</v>
       </c>
@@ -23985,7 +24020,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>13193431417</v>
       </c>
@@ -24161,7 +24196,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>13194121974</v>
       </c>
@@ -24325,7 +24360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>13194279789</v>
       </c>
@@ -24459,7 +24494,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>13194987989</v>
       </c>
@@ -24635,7 +24670,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>13195046827</v>
       </c>
@@ -24787,7 +24822,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>13195120915</v>
       </c>
@@ -24936,7 +24971,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>13195218378</v>
       </c>
@@ -25097,7 +25132,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>13195250414</v>
       </c>
@@ -25312,7 +25347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>13195270837</v>
       </c>
@@ -25446,7 +25481,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>13195322799</v>
       </c>
@@ -25601,7 +25636,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>13195385069</v>
       </c>
@@ -25735,7 +25770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>13195719750</v>
       </c>
@@ -25893,7 +25928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>13196314130</v>
       </c>
@@ -26033,7 +26068,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:121" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:121" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>13196541285</v>
       </c>
@@ -26256,7 +26291,7 @@
       <c r="DP87"/>
       <c r="DQ87"/>
     </row>
-    <row r="88" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>13196563254</v>
       </c>
@@ -26423,7 +26458,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>13196573685</v>
       </c>
@@ -26566,7 +26601,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>13196695853</v>
       </c>
@@ -26712,7 +26747,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>13196839638</v>
       </c>
@@ -26870,7 +26905,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>13196946382</v>
       </c>
@@ -27103,7 +27138,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>13197234986</v>
       </c>
@@ -27279,7 +27314,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>13197538421</v>
       </c>
@@ -27452,7 +27487,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>13197842913</v>
       </c>
@@ -27622,7 +27657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>13198177923</v>
       </c>
@@ -27786,7 +27821,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>13199464865</v>
       </c>
@@ -27932,7 +27967,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>13199536682</v>
       </c>
@@ -28120,7 +28155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>13199689446</v>
       </c>
@@ -28284,7 +28319,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>13199919162</v>
       </c>
@@ -28448,7 +28483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:121" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:121" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>13200753216</v>
       </c>
@@ -28612,7 +28647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>13200781195</v>
       </c>
@@ -28794,7 +28829,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>13200882890</v>
       </c>
@@ -28958,7 +28993,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>13200929407</v>
       </c>
@@ -29131,7 +29166,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>13200955302</v>
       </c>
@@ -29259,7 +29294,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>13201118909</v>
       </c>
@@ -29399,7 +29434,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>13201124941</v>
       </c>
@@ -29605,7 +29640,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>13201515673</v>
       </c>
@@ -29840,7 +29875,7 @@
       <c r="DP108" s="3"/>
       <c r="DQ108" s="3"/>
     </row>
-    <row r="109" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>13202432456</v>
       </c>
@@ -29998,7 +30033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>13203695186</v>
       </c>
@@ -30223,7 +30258,7 @@
       <c r="DP110"/>
       <c r="DQ110"/>
     </row>
-    <row r="111" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>13205117017</v>
       </c>
@@ -30369,7 +30404,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>13206438471</v>
       </c>
@@ -30557,7 +30592,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>13206506176</v>
       </c>
@@ -30718,7 +30753,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>13206628506</v>
       </c>
@@ -30897,7 +30932,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>13207129674</v>
       </c>
@@ -31070,7 +31105,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>13209098785</v>
       </c>
@@ -31285,7 +31320,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>13211826575</v>
       </c>
@@ -31527,7 +31562,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>13214043927</v>
       </c>
@@ -31673,7 +31708,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>13216736970</v>
       </c>
@@ -31789,7 +31824,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>13217108150</v>
       </c>
@@ -31986,7 +32021,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>13224606896</v>
       </c>
@@ -32156,7 +32191,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>13224808299</v>
       </c>
@@ -32287,7 +32322,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13225451662</v>
       </c>
@@ -32475,7 +32510,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>13225538649</v>
       </c>
@@ -32642,7 +32677,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>13225547067</v>
       </c>
@@ -32818,7 +32853,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>13225743334</v>
       </c>
@@ -32994,7 +33029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>13226020431</v>
       </c>
@@ -33158,7 +33193,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>13226049655</v>
       </c>
@@ -33256,7 +33291,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="129" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>13226084924</v>
       </c>
@@ -33423,7 +33458,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>13226544985</v>
       </c>
@@ -33602,7 +33637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>13227345979</v>
       </c>
@@ -33739,7 +33774,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>13227928811</v>
       </c>
@@ -33840,7 +33875,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="133" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>13229192749</v>
       </c>
@@ -33989,7 +34024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>13229340764</v>
       </c>
@@ -34240,7 +34275,7 @@
       </c>
       <c r="DQ134"/>
     </row>
-    <row r="135" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>13229351161</v>
       </c>
@@ -34410,7 +34445,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>13229352061</v>
       </c>
@@ -34599,7 +34634,7 @@
       <c r="DP136" s="3"/>
       <c r="DQ136" s="3"/>
     </row>
-    <row r="137" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13229381277</v>
       </c>
@@ -34775,7 +34810,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13230960111</v>
       </c>
@@ -34960,7 +34995,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13231021394</v>
       </c>
@@ -35166,7 +35201,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="140" spans="1:121" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:121" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>13231044164</v>
       </c>
@@ -35267,7 +35302,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>13231137368</v>
       </c>
@@ -35434,7 +35469,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>13231186490</v>
       </c>
@@ -35574,7 +35609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>13231764635</v>
       </c>
@@ -35750,7 +35785,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="144" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>13231797666</v>
       </c>
@@ -35923,7 +35958,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>13232199743</v>
       </c>
@@ -36111,7 +36146,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>13232587919</v>
       </c>
@@ -36296,7 +36331,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="147" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>13235304994</v>
       </c>
@@ -36406,7 +36441,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="148" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>13235338404</v>
       </c>
@@ -36641,7 +36676,7 @@
       <c r="DP148"/>
       <c r="DQ148"/>
     </row>
-    <row r="149" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>13235373121</v>
       </c>
@@ -36799,7 +36834,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>13235384485</v>
       </c>
@@ -36969,7 +37004,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>13235427772</v>
       </c>
@@ -37172,7 +37207,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>13235450115</v>
       </c>
@@ -37345,7 +37380,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="153" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>13235463734</v>
       </c>
@@ -37557,7 +37592,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="154" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>13235536013</v>
       </c>
@@ -37682,7 +37717,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>13235573800</v>
       </c>
@@ -37879,7 +37914,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>13235576543</v>
       </c>
@@ -38091,7 +38126,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>13235610082</v>
       </c>
@@ -38321,7 +38356,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="158" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>13235630665</v>
       </c>
@@ -38524,7 +38559,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>13235652006</v>
       </c>
@@ -38679,7 +38714,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="160" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>13235657420</v>
       </c>
@@ -38939,7 +38974,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>13235732808</v>
       </c>
@@ -39085,7 +39120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>13236118543</v>
       </c>
@@ -39273,7 +39308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>13236393669</v>
       </c>
@@ -39428,7 +39463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>13236462734</v>
       </c>
@@ -39635,7 +39670,7 @@
       <c r="DP164" s="3"/>
       <c r="DQ164" s="3"/>
     </row>
-    <row r="165" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>13237230599</v>
       </c>
@@ -39817,7 +39852,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>13237596208</v>
       </c>
@@ -39999,7 +40034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>13237658243</v>
       </c>
@@ -40163,7 +40198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="168" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>13237686017</v>
       </c>
@@ -40318,7 +40353,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>13237691264</v>
       </c>
@@ -40428,7 +40463,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="170" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>13237728280</v>
       </c>
@@ -40631,7 +40666,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>13237768623</v>
       </c>
@@ -40786,7 +40821,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>13237769852</v>
       </c>
@@ -41009,7 +41044,7 @@
       </c>
       <c r="DQ172"/>
     </row>
-    <row r="173" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>13237778270</v>
       </c>
@@ -41173,7 +41208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="174" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>13237834216</v>
       </c>
@@ -41322,7 +41357,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="175" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>13237854948</v>
       </c>
@@ -41492,7 +41527,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>13237914945</v>
       </c>
@@ -41605,7 +41640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>13237925221</v>
       </c>
@@ -41754,7 +41789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="178" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>13238021363</v>
       </c>
@@ -41909,7 +41944,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>13238190114</v>
       </c>
@@ -42019,7 +42054,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="180" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>13238320747</v>
       </c>
@@ -42222,7 +42257,7 @@
       <c r="DP180"/>
       <c r="DQ180"/>
     </row>
-    <row r="181" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>13238398342</v>
       </c>
@@ -42386,7 +42421,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>13238405414</v>
       </c>
@@ -42580,7 +42615,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="183" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>13238715803</v>
       </c>
@@ -42729,7 +42764,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>13238727595</v>
       </c>
@@ -42878,7 +42913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="185" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>13239511539</v>
       </c>
@@ -43039,7 +43074,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="186" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>13239660444</v>
       </c>
@@ -43227,7 +43262,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>13239682514</v>
       </c>
@@ -43469,7 +43504,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>13239693224</v>
       </c>
@@ -43656,7 +43691,7 @@
       <c r="DP188" s="3"/>
       <c r="DQ188" s="3"/>
     </row>
-    <row r="189" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>13239777570</v>
       </c>
@@ -43865,7 +43900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="190" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>13239858961</v>
       </c>
@@ -44047,7 +44082,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="191" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>13239871315</v>
       </c>
@@ -44313,7 +44348,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>13239964154</v>
       </c>
@@ -44507,7 +44542,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>13240035548</v>
       </c>
@@ -44731,7 +44766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>13240443559</v>
       </c>
@@ -44964,7 +44999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>13240644091</v>
       </c>
@@ -45137,7 +45172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="196" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>13241036596</v>
       </c>
@@ -45301,7 +45336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="197" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>13241860510</v>
       </c>
@@ -45492,7 +45527,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>13241873799</v>
       </c>
@@ -45707,7 +45742,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>13241884521</v>
       </c>
@@ -45823,7 +45858,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="200" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>13241925809</v>
       </c>
@@ -46050,7 +46085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="201" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>13241933830</v>
       </c>
@@ -46229,7 +46264,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="202" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>13241958347</v>
       </c>
@@ -46336,7 +46371,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="203" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>13242005921</v>
       </c>
@@ -46565,7 +46600,7 @@
       <c r="DP203"/>
       <c r="DQ203"/>
     </row>
-    <row r="204" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>13242025441</v>
       </c>
@@ -46711,7 +46746,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>13242063158</v>
       </c>
@@ -46920,7 +46955,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="206" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>13242067839</v>
       </c>
@@ -47087,7 +47122,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="207" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>13242151739</v>
       </c>
@@ -47251,7 +47286,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="208" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>13242278342</v>
       </c>
@@ -47430,7 +47465,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>13242323395</v>
       </c>
@@ -47594,7 +47629,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="210" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>13242331927</v>
       </c>
@@ -47807,7 +47842,7 @@
       </c>
       <c r="DQ210" s="3"/>
     </row>
-    <row r="211" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>13242344825</v>
       </c>
@@ -48010,7 +48045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="212" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>13242362617</v>
       </c>
@@ -48153,7 +48188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="213" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>13242397333</v>
       </c>
@@ -48293,7 +48328,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="214" spans="1:121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>13242457058</v>
       </c>
@@ -48496,7 +48531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>13242488908</v>
       </c>
@@ -48693,7 +48728,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>13242996047</v>
       </c>
@@ -48944,7 +48979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="217" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>13244335223</v>
       </c>
@@ -49114,7 +49149,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="218" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>13244391969</v>
       </c>
@@ -49296,7 +49331,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="219" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>13244392246</v>
       </c>
@@ -49514,7 +49549,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>13244452578</v>
       </c>
@@ -49678,7 +49713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>13244455837</v>
       </c>
@@ -49902,7 +49937,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>13244507656</v>
       </c>
@@ -50063,7 +50098,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="223" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>13244628560</v>
       </c>
@@ -50176,7 +50211,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="224" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>13244701313</v>
       </c>
@@ -50370,7 +50405,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>13244854447</v>
       </c>
@@ -50627,7 +50662,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>13244865785</v>
       </c>
@@ -50785,7 +50820,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>13245191218</v>
       </c>
@@ -51052,7 +51087,7 @@
       </c>
       <c r="DQ227" s="3"/>
     </row>
-    <row r="228" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>13245504472</v>
       </c>
@@ -51261,7 +51296,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="229" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>13246035848</v>
       </c>
@@ -51386,7 +51421,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="230" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>13247872440</v>
       </c>
@@ -51547,7 +51582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="231" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>13248271061</v>
       </c>
@@ -51741,7 +51776,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="232" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>13248885022</v>
       </c>
@@ -51896,7 +51931,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="233" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>13248892075</v>
       </c>
@@ -52048,7 +52083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="234" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>13248924113</v>
       </c>
@@ -52188,7 +52223,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="235" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>13248935887</v>
       </c>
@@ -52379,7 +52414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="236" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>13248938679</v>
       </c>
@@ -52546,7 +52581,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="237" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>13249076884</v>
       </c>
@@ -52725,7 +52760,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>13249135386</v>
       </c>
@@ -52847,7 +52882,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="239" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>13249199403</v>
       </c>
@@ -53080,7 +53115,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="240" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>13249454349</v>
       </c>
@@ -53265,7 +53300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="241" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>13249520153</v>
       </c>
@@ -53450,7 +53485,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>13249562641</v>
       </c>
@@ -53677,7 +53712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="243" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>13250776255</v>
       </c>
@@ -53838,7 +53873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="244" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>13250878053</v>
       </c>
@@ -54011,7 +54046,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="245" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>13251798950</v>
       </c>
@@ -54187,7 +54222,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="246" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>13251863855</v>
       </c>
@@ -54387,7 +54422,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>13252226345</v>
       </c>
@@ -54569,7 +54604,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="248" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>13252286820</v>
       </c>
@@ -54736,7 +54771,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="249" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>13252334132</v>
       </c>
@@ -54957,7 +54992,7 @@
       <c r="DP249"/>
       <c r="DQ249"/>
     </row>
-    <row r="250" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>13252354584</v>
       </c>
@@ -55094,7 +55129,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="251" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>13252400226</v>
       </c>
@@ -55267,7 +55302,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>13253333354</v>
       </c>
@@ -55536,7 +55571,7 @@
       </c>
       <c r="DQ252" s="3"/>
     </row>
-    <row r="253" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>13254369729</v>
       </c>
@@ -55634,7 +55669,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="254" spans="1:121" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:121" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>13254394774</v>
       </c>
@@ -55804,7 +55839,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="255" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>13254435984</v>
       </c>
@@ -55971,7 +56006,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="256" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>13254505045</v>
       </c>
@@ -56153,7 +56188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="257" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>13254542038</v>
       </c>
@@ -56320,7 +56355,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="258" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>13254568532</v>
       </c>
@@ -56454,7 +56489,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="259" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>13254575273</v>
       </c>
@@ -56657,7 +56692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="260" spans="1:120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:120" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>13254723398</v>
       </c>
@@ -56842,7 +56877,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="261" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>13254881211</v>
       </c>
@@ -56994,7 +57029,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="262" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>13255297812</v>
       </c>
@@ -57101,7 +57136,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="263" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>13255307243</v>
       </c>
@@ -57268,7 +57303,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="264" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>13255563915</v>
       </c>
@@ -57375,7 +57410,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="265" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>13256101088</v>
       </c>
@@ -57593,7 +57628,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>13256953314</v>
       </c>
@@ -57739,7 +57774,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="267" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>13257473283</v>
       </c>
@@ -57891,7 +57926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="268" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>13257734308</v>
       </c>
@@ -58046,7 +58081,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="269" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>13259979597</v>
       </c>
@@ -58255,7 +58290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="270" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>13260761130</v>
       </c>
@@ -58443,7 +58478,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="271" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>13265314856</v>
       </c>
@@ -58697,7 +58732,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="272" spans="1:120" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>13265538997</v>
       </c>
@@ -58906,7 +58941,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="273" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>13266032431</v>
       </c>
@@ -58998,7 +59033,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="274" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>13267411670</v>
       </c>
@@ -59271,7 +59306,7 @@
       </c>
       <c r="DQ274"/>
     </row>
-    <row r="275" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>13267419953</v>
       </c>
@@ -59456,7 +59491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="276" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>13267452243</v>
       </c>
@@ -59632,7 +59667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>13267672216</v>
       </c>
@@ -59832,7 +59867,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="278" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>13268825162</v>
       </c>
@@ -60057,7 +60092,7 @@
       <c r="DP278" s="3"/>
       <c r="DQ278" s="3"/>
     </row>
-    <row r="279" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>13270058017</v>
       </c>
@@ -60296,7 +60331,7 @@
       <c r="DP279"/>
       <c r="DQ279"/>
     </row>
-    <row r="280" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>13270332571</v>
       </c>
@@ -60526,7 +60561,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="281" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>13270363261</v>
       </c>
@@ -60693,7 +60728,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="282" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>13271488877</v>
       </c>
@@ -60860,7 +60895,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="283" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>13272629135</v>
       </c>
@@ -61042,7 +61077,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="284" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>13272644586</v>
       </c>
@@ -61221,7 +61256,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="285" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>13272677232</v>
       </c>
@@ -61472,7 +61507,7 @@
       <c r="DP285" s="3"/>
       <c r="DQ285" s="3"/>
     </row>
-    <row r="286" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>13272789919</v>
       </c>
@@ -61657,7 +61692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="287" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>13272809921</v>
       </c>
@@ -61827,7 +61862,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="288" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>13272850157</v>
       </c>
@@ -61973,7 +62008,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="289" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>13272907580</v>
       </c>
@@ -62215,7 +62250,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="290" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>13273035816</v>
       </c>
@@ -62403,7 +62438,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="291" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>13274426241</v>
       </c>
@@ -62522,7 +62557,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>13275307816</v>
       </c>
@@ -62692,7 +62727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="293" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>13275628031</v>
       </c>
@@ -62903,7 +62938,7 @@
       <c r="DP293" s="3"/>
       <c r="DQ293" s="3"/>
     </row>
-    <row r="294" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>13275663665</v>
       </c>
@@ -63085,7 +63120,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="295" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>13277630736</v>
       </c>
@@ -63276,7 +63311,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="296" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:121" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>13279295567</v>
       </c>
@@ -63493,7 +63528,7 @@
       </c>
       <c r="DQ296"/>
     </row>
-    <row r="297" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>13280094798</v>
       </c>
@@ -63591,7 +63626,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="298" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>13280160764</v>
       </c>
@@ -63809,7 +63844,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="299" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>13280179081</v>
       </c>
@@ -63979,7 +64014,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="300" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>13280355669</v>
       </c>
@@ -64137,7 +64172,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="301" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>13280397775</v>
       </c>
@@ -64277,7 +64312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>13280684979</v>
       </c>
@@ -64474,7 +64509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="303" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>13282833509</v>
       </c>
@@ -64617,8 +64652,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="BK168" r:id="rId1"/>
-    <hyperlink ref="BK96" r:id="rId2"/>
+    <hyperlink ref="BK168" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="BK96" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
